--- a/Question_Sets/Software skills/SketchUp Pro.xlsx
+++ b/Question_Sets/Software skills/SketchUp Pro.xlsx
@@ -16,23 +16,62 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are working in an Architectural Inches template. You want to create a 1’ x 1’ rectangle using a single command.  What single command should you use?', 'ques_type': 2, 'options': ['12,12', '1,1', '12x12', '12.12', '1x1', '1.1'], 'score': '12,12'}, {'title': 'You want to convert the geometry shown below into a solid group. After selecting and converting the geometry to a group, the geometry does not become a solid group.  Which of the following is the most likely reason your efforts to create a solid group failed?', 'ques_type': 2, 'options': ['Line A is a stray edge.', 'Line A shows a hole in the geometry.', 'There is an internal and a reversed face in the geometry.', 'Line A constitutes an internal face.'], 'score': 'There is an internal and a reversed face in the geometry.'}, {'title': 'You are texturing a cylinder with 64 sides, and your efforts produce the cylinder shown in the image below.  What steps should you take to resolve this problem?', 'ques_type': 2, 'options': ['Create a cylinder with fewer faces.', 'Make the shown cylinder a group and apply texture.', 'Select the curved face separately and apply texture.', 'Use projected texture.'], 'score': 'Use projected texture.'}, {'title': 'What is the quickest way to smooth out the edges of a cube?', 'ques_type': 2, 'options': ['Select edges individually and choose Soften Edges.', 'Erase the edges with Shift + Eraser tool.', 'Select the complete cube and use the Soften Edges slider.', 'Erase the edges with Ctrl (PC) / Option (Apple) + Eraser tool.'], 'score': 'Erase the edges with Ctrl (PC) / Option (Apple) + Eraser tool.'}]</t>
+    <t>questions = [
+    {
+        "title": "You are working in an Architectural Inches template. You want to create a 1\u2019 x 1\u2019 rectangle using a single command.  What single command should you use?",
+        "ques_type": 2,
+        "options": [
+            "12,12",
+            "1,1",
+            "12x12",
+            "12.12",
+            "1x1",
+            "1.1"
+        ],
+        "score": "12,12"
+    },
+    {
+        "title": "You want to convert the geometry shown below into a solid group. After selecting and converting the geometry to a group, the geometry does not become a solid group.  Which of the following is the most likely reason your efforts to create a solid group failed?",
+        "ques_type": 2,
+        "options": [
+            "Line A is a stray edge.",
+            "Line A shows a hole in the geometry.",
+            "There is an internal and a reversed face in the geometry.",
+            "Line A constitutes an internal face."
+        ],
+        "score": "There is an internal and a reversed face in the geometry."
+    },
+    {
+        "title": "You are texturing a cylinder with 64 sides, and your efforts produce the cylinder shown in the image below.  What steps should you take to resolve this problem?",
+        "ques_type": 2,
+        "options": [
+            "Create a cylinder with fewer faces.",
+            "Make the shown cylinder a group and apply texture.",
+            "Select the curved face separately and apply texture.",
+            "Use projected texture."
+        ],
+        "score": "Use projected texture."
+    },
+    {
+        "title": "What is the quickest way to smooth out the edges of a cube?",
+        "ques_type": 2,
+        "options": [
+            "Select edges individually and choose Soften Edges.",
+            "Erase the edges with Shift + Eraser tool.",
+            "Select the complete cube and use the Soften Edges slider.",
+            "Erase the edges with Ctrl (PC) / Option (Apple) + Eraser tool."
+        ],
+        "score": "Erase the edges with Ctrl (PC) / Option (Apple) + Eraser tool."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +95,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +395,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
